--- a/metrics/R2/average & upto/Infarto de Miocardio.xlsx
+++ b/metrics/R2/average & upto/Infarto de Miocardio.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4882551059568246</v>
+        <v>0.414629281231847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4882551059568246</v>
+        <v>0.414629281231847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4882551059568246</v>
+        <v>0.414629281231847</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9979591198726615</v>
+        <v>0.9894499874743389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9979710536229284</v>
+        <v>0.9891302843173377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979579979758137</v>
+        <v>0.9895747368703934</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985727770895493</v>
+        <v>0.9865282229242555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985885885992912</v>
+        <v>0.9866563564179951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985848664676934</v>
+        <v>0.986493335548258</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9588408918914199</v>
+        <v>0.9442623704937737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9612608157319815</v>
+        <v>0.9459174493941241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9587267844391872</v>
+        <v>0.9431060202619227</v>
       </c>
     </row>
   </sheetData>
